--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_19-24.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_19-24.xlsx
@@ -149,6 +149,12 @@
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
     <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
   </si>
   <si>
@@ -377,13 +383,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-6:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -1671,13 +1677,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1689,7 +1695,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1697,17 +1703,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>147.5</v>
+        <v>15</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1715,7 +1721,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1723,17 +1729,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>52</v>
+        <v>147.5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1741,7 +1747,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1749,17 +1755,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1767,7 +1773,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1775,7 +1781,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1785,7 +1791,7 @@
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1793,7 +1799,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1801,13 +1807,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1819,7 +1825,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1827,13 +1833,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>30.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1845,7 +1851,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1853,17 +1859,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>16</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1885,11 +1891,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1905,17 +1911,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1923,7 +1929,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1931,17 +1937,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1949,7 +1955,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1957,17 +1963,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1975,7 +1981,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1983,17 +1989,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2001,7 +2007,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2009,13 +2015,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2027,7 +2033,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2035,17 +2041,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2061,17 +2067,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2079,7 +2085,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2087,17 +2093,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2105,7 +2111,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2113,17 +2119,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2131,7 +2137,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2139,17 +2145,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2157,7 +2163,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2165,17 +2171,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2183,7 +2189,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2191,17 +2197,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2217,17 +2223,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2235,7 +2241,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2243,17 +2249,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2261,7 +2267,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2269,17 +2275,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2287,7 +2293,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2295,13 +2301,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2313,7 +2319,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2321,13 +2327,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2339,7 +2345,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2347,17 +2353,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2373,17 +2379,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2391,7 +2397,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2399,13 +2405,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2417,7 +2423,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2425,13 +2431,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2451,17 +2457,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2469,7 +2475,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2483,7 +2489,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2495,7 +2501,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2503,13 +2509,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2529,17 +2535,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2547,7 +2553,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2555,17 +2561,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2573,7 +2579,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2581,13 +2587,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2599,7 +2605,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2607,13 +2613,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2625,7 +2631,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2633,17 +2639,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2651,7 +2657,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2659,17 +2665,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2677,7 +2683,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2685,17 +2691,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2717,11 +2723,11 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>20.399999999999999</v>
+        <v>15</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2743,7 +2749,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2763,17 +2769,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2781,7 +2787,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2789,17 +2795,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2807,7 +2813,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2815,17 +2821,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>149.5</v>
+        <v>175</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2833,7 +2839,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2841,13 +2847,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>39</v>
+        <v>149.5</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2859,7 +2865,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2873,11 +2879,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2885,7 +2891,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2893,13 +2899,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>-17.09</v>
+        <v>80</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2911,7 +2917,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2919,17 +2925,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>23</v>
+        <v>-17.09</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2937,7 +2943,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2945,13 +2951,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2963,7 +2969,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2971,17 +2977,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2989,7 +2995,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2997,17 +3003,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3015,7 +3021,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3023,13 +3029,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3041,7 +3047,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3049,13 +3055,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3067,7 +3073,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3075,13 +3081,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3093,7 +3099,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3101,17 +3107,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3127,17 +3133,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3145,7 +3151,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3153,17 +3159,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3171,7 +3177,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3179,17 +3185,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3205,13 +3211,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>-375</v>
+        <v>34</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3223,7 +3229,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3231,13 +3237,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>50</v>
+        <v>-375</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3249,7 +3255,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3257,17 +3263,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3275,7 +3281,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3289,11 +3295,11 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3301,7 +3307,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3309,17 +3315,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>27.879999999999999</v>
+        <v>40</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3341,11 +3347,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>2</v>
+        <v>29.879999999999999</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3353,7 +3359,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3361,13 +3367,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3379,7 +3385,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3387,17 +3393,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>36</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3405,7 +3411,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3413,17 +3419,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3431,7 +3437,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3445,7 +3451,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3457,7 +3463,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3465,13 +3471,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3483,7 +3489,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3491,13 +3497,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3517,13 +3523,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3535,7 +3541,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3543,13 +3549,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3561,7 +3567,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3569,13 +3575,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3587,7 +3593,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3595,13 +3601,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3613,7 +3619,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3621,13 +3627,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3639,7 +3645,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3647,13 +3653,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3665,7 +3671,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3673,51 +3679,77 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="107" ht="26.25" customHeight="1">
-      <c r="K107" s="10">
-        <v>4363.6400000000003</v>
-      </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="11">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>104</v>
+      </c>
+      <c t="s" r="B107" s="7">
         <v>140</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c t="s" r="F108" s="12">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c t="s" r="H107" s="8">
         <v>141</v>
       </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="13"/>
-      <c t="s" r="I108" s="14">
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="9">
+        <v>45</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c t="s" r="N107" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="K108" s="10">
+        <v>4373.6400000000003</v>
+      </c>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+    </row>
+    <row r="109" ht="17.25" customHeight="1">
+      <c t="s" r="A109" s="11">
         <v>142</v>
       </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c t="s" r="F109" s="12">
+        <v>143</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109" s="13"/>
+      <c t="s" r="I109" s="14">
+        <v>144</v>
+      </c>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="320">
+  <mergeCells count="323">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4034,10 +4066,13 @@
     <mergeCell ref="B106:G106"/>
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
-    <mergeCell ref="K107:N107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="I108:N108"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="K108:N108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="I109:N109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
